--- a/Code/Results/Cases/Case_4_66/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_66/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.0295338090888</v>
+        <v>13.32347289536497</v>
       </c>
       <c r="C2">
-        <v>14.653977445142</v>
+        <v>8.621370384004305</v>
       </c>
       <c r="D2">
-        <v>7.224146125246221</v>
+        <v>5.976175885528134</v>
       </c>
       <c r="E2">
-        <v>11.3650067283855</v>
+        <v>11.13812739258253</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.058763588376466</v>
+        <v>3.620795274893379</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.16012677203018</v>
+        <v>14.94262488527407</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.47007149211897</v>
+        <v>21.92193066668024</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.63050052039465</v>
+        <v>12.72803815671297</v>
       </c>
       <c r="C3">
-        <v>13.78673039968938</v>
+        <v>8.146525002225319</v>
       </c>
       <c r="D3">
-        <v>6.716397054872419</v>
+        <v>5.856247262053571</v>
       </c>
       <c r="E3">
-        <v>10.7653566041492</v>
+        <v>11.04363809332773</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.066439906699034</v>
+        <v>3.623560066773948</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.95879163834622</v>
+        <v>14.65559845052419</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.99669556541163</v>
+        <v>21.93792121216747</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.7234808056882</v>
+        <v>12.34957036039175</v>
       </c>
       <c r="C4">
-        <v>13.22729331721196</v>
+        <v>7.838918388945147</v>
       </c>
       <c r="D4">
-        <v>6.388054198946373</v>
+        <v>5.783220541135611</v>
       </c>
       <c r="E4">
-        <v>10.39645300335881</v>
+        <v>10.98976343518347</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.071273588052978</v>
+        <v>3.625345876694209</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.18295575951635</v>
+        <v>14.48007159145226</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.72553794548291</v>
+        <v>21.9555624881631</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.34170410015086</v>
+        <v>12.19232259089783</v>
       </c>
       <c r="C5">
-        <v>12.99257867950616</v>
+        <v>7.709587761525345</v>
       </c>
       <c r="D5">
-        <v>6.250033304658491</v>
+        <v>5.753660658480785</v>
       </c>
       <c r="E5">
-        <v>10.24609858131339</v>
+        <v>10.96887064603442</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.073275040506577</v>
+        <v>3.626095869763923</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.85710975920102</v>
+        <v>14.40882133633727</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.61991350309416</v>
+        <v>21.96470938720958</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.27757365473949</v>
+        <v>12.16603630453172</v>
       </c>
       <c r="C6">
-        <v>12.95319894683725</v>
+        <v>7.687874162496983</v>
       </c>
       <c r="D6">
-        <v>6.226858866049178</v>
+        <v>5.748765630639035</v>
       </c>
       <c r="E6">
-        <v>10.22113617817797</v>
+        <v>10.96546606357543</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.073609333708419</v>
+        <v>3.626221752352669</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.80241623773519</v>
+        <v>14.39701004852023</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.60266786687113</v>
+        <v>21.96634617866205</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.71838137031099</v>
+        <v>12.34746157744608</v>
       </c>
       <c r="C7">
-        <v>13.22415509738513</v>
+        <v>7.837190213854359</v>
       </c>
       <c r="D7">
-        <v>6.386209944573556</v>
+        <v>5.78282101937467</v>
       </c>
       <c r="E7">
-        <v>10.39442513303933</v>
+        <v>10.98947734499465</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.071300450230826</v>
+        <v>3.625355901126004</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.17860059978673</v>
+        <v>14.47910942528333</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.72409377119886</v>
+        <v>21.95567793222105</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.55705574369721</v>
+        <v>13.12095879765254</v>
       </c>
       <c r="C8">
-        <v>14.36055731955734</v>
+        <v>8.461005274924783</v>
       </c>
       <c r="D8">
-        <v>7.052486118349393</v>
+        <v>5.934725191188106</v>
       </c>
       <c r="E8">
-        <v>11.15847928150144</v>
+        <v>11.10470056230735</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.061386277278564</v>
+        <v>3.621730313000457</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.75378560123636</v>
+        <v>14.84357080776323</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.30279282546541</v>
+        <v>21.92581544034024</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.78619621779779</v>
+        <v>14.52760099653715</v>
       </c>
       <c r="C9">
-        <v>16.3748141634985</v>
+        <v>9.55504584469228</v>
       </c>
       <c r="D9">
-        <v>8.229777570894621</v>
+        <v>6.235471198971563</v>
       </c>
       <c r="E9">
-        <v>12.64610829628285</v>
+        <v>11.3625172448538</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.042830668338529</v>
+        <v>3.6153169301387</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.54381372323729</v>
+        <v>15.55958298685957</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.59296579913934</v>
+        <v>21.92966982485933</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.9359559211134</v>
+        <v>15.48487451475165</v>
       </c>
       <c r="C10">
-        <v>17.72492005183127</v>
+        <v>10.27816656473774</v>
       </c>
       <c r="D10">
-        <v>9.019313482501495</v>
+        <v>6.455603392443648</v>
       </c>
       <c r="E10">
-        <v>13.8837704438059</v>
+        <v>11.56986023531366</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.029632741330314</v>
+        <v>3.611024545042937</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.41841440347218</v>
+        <v>16.08083129027146</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.63622547157464</v>
+        <v>21.97091519447151</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.86726408825533</v>
+        <v>15.90236364527738</v>
       </c>
       <c r="C11">
-        <v>18.31146125780188</v>
+        <v>10.58937515305615</v>
       </c>
       <c r="D11">
-        <v>9.362920811512874</v>
+        <v>6.555054490055859</v>
       </c>
       <c r="E11">
-        <v>14.46838279314519</v>
+        <v>11.66771923156803</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.023697019804698</v>
+        <v>3.609161855976227</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.23498286241186</v>
+        <v>16.3157996192485</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.13177648630976</v>
+        <v>21.99806272039681</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.21337302533833</v>
+        <v>16.05777397573809</v>
       </c>
       <c r="C12">
-        <v>18.52965734727899</v>
+        <v>10.7046572841198</v>
       </c>
       <c r="D12">
-        <v>9.490870654384139</v>
+        <v>6.592574978141215</v>
       </c>
       <c r="E12">
-        <v>14.68752993765611</v>
+        <v>11.70525234249934</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.021456692961969</v>
+        <v>3.608469355560975</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.53916087911891</v>
+        <v>16.40437940669069</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.32248094675703</v>
+        <v>22.00954914098037</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.1391214137181</v>
+        <v>16.02442433733088</v>
       </c>
       <c r="C13">
-        <v>18.48283792010396</v>
+        <v>10.67994351096658</v>
       </c>
       <c r="D13">
-        <v>9.463409556299274</v>
+        <v>6.584501094635393</v>
       </c>
       <c r="E13">
-        <v>14.64042888995737</v>
+        <v>11.69714827534241</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.021938898939204</v>
+        <v>3.60861792715246</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.47387195176615</v>
+        <v>16.38532120557958</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.28127286056543</v>
+        <v>22.00702169767182</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.89586920242025</v>
+        <v>15.91520363938873</v>
       </c>
       <c r="C14">
-        <v>18.32949044371229</v>
+        <v>10.59891097237741</v>
       </c>
       <c r="D14">
-        <v>9.373490325563214</v>
+        <v>6.558144342803073</v>
       </c>
       <c r="E14">
-        <v>14.48645580456866</v>
+        <v>11.67079775374166</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.023512572989129</v>
+        <v>3.609104626246215</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.26010773571755</v>
+        <v>16.32309558997594</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.14740444353728</v>
+        <v>21.99898354366103</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.74602086156291</v>
+        <v>15.84795066125365</v>
       </c>
       <c r="C15">
-        <v>18.23505290896365</v>
+        <v>10.54894170913388</v>
       </c>
       <c r="D15">
-        <v>9.318132199329682</v>
+        <v>6.54198074179835</v>
       </c>
       <c r="E15">
-        <v>14.39185775053715</v>
+        <v>11.6547183037255</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.024477382634855</v>
+        <v>3.609404416006311</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23.12852004103789</v>
+        <v>16.28492627932955</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.0658048225836</v>
+        <v>21.99421701527522</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.87416680589791</v>
+        <v>15.45722004924359</v>
       </c>
       <c r="C16">
-        <v>17.68603693025812</v>
+        <v>10.25746998240736</v>
       </c>
       <c r="D16">
-        <v>8.996550774948716</v>
+        <v>6.449086666661474</v>
       </c>
       <c r="E16">
-        <v>13.8452419860609</v>
+        <v>11.56353333857317</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.030021826099344</v>
+        <v>3.611148079650536</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.36433516281608</v>
+        <v>16.06542462299382</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.60426443326511</v>
+        <v>21.96930984855968</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.32747112632945</v>
+        <v>15.21283931063702</v>
       </c>
       <c r="C17">
-        <v>17.342194215403</v>
+        <v>10.07410540225128</v>
       </c>
       <c r="D17">
-        <v>8.795334835432286</v>
+        <v>6.39189337205288</v>
       </c>
       <c r="E17">
-        <v>13.50573692122378</v>
+        <v>11.50847750902329</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.033438976694588</v>
+        <v>3.61224074376655</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.88637424817884</v>
+        <v>15.9301523449671</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.32651251699285</v>
+        <v>21.95617859360484</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.0086277591482</v>
+        <v>15.07059042874944</v>
       </c>
       <c r="C18">
-        <v>17.14182001555184</v>
+        <v>9.966969452764522</v>
       </c>
       <c r="D18">
-        <v>8.678131984389111</v>
+        <v>6.35893481907468</v>
       </c>
       <c r="E18">
-        <v>13.30887344304559</v>
+        <v>11.47714586841105</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.035410996194883</v>
+        <v>3.612877685065347</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.60804573659606</v>
+        <v>15.85214992517561</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.168727249669</v>
+        <v>21.94941514238973</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.89991313554927</v>
+        <v>15.02214082908068</v>
       </c>
       <c r="C19">
-        <v>17.0735277961499</v>
+        <v>9.930408841904825</v>
       </c>
       <c r="D19">
-        <v>8.638194800733011</v>
+        <v>6.347766159179892</v>
       </c>
       <c r="E19">
-        <v>13.24194096861604</v>
+        <v>11.46659602943596</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.036079884457768</v>
+        <v>3.613094799389451</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.51321666255614</v>
+        <v>15.82570851755928</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.11564156323966</v>
+        <v>21.94726067194292</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.3861220097474</v>
+        <v>15.23902947558013</v>
       </c>
       <c r="C20">
-        <v>17.37906608377706</v>
+        <v>10.0937977804074</v>
       </c>
       <c r="D20">
-        <v>8.816906136185091</v>
+        <v>6.397988463327768</v>
       </c>
       <c r="E20">
-        <v>13.54204109148569</v>
+        <v>11.51430385628473</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.033074552262252</v>
+        <v>3.612123551747262</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.93760661043799</v>
+        <v>15.94457339405593</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.35587558457059</v>
+        <v>21.95749473907356</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.96749499196586</v>
+        <v>15.94735794643261</v>
       </c>
       <c r="C21">
-        <v>18.37463801028891</v>
+        <v>10.62278192083632</v>
       </c>
       <c r="D21">
-        <v>9.399960001807795</v>
+        <v>6.56589005710794</v>
       </c>
       <c r="E21">
-        <v>14.53174049227995</v>
+        <v>11.67852488698868</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.023050166159678</v>
+        <v>3.60896132250499</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.32303079953498</v>
+        <v>16.34138423382139</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.18664166701986</v>
+        <v>22.00131181204341</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.9628712378054</v>
+        <v>16.39461386861253</v>
       </c>
       <c r="C22">
-        <v>19.00252345210238</v>
+        <v>10.95354451709398</v>
       </c>
       <c r="D22">
-        <v>9.768426475888337</v>
+        <v>6.674793250688162</v>
       </c>
       <c r="E22">
-        <v>15.16565288362973</v>
+        <v>11.78861166081492</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.016540500337873</v>
+        <v>3.606969544116318</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>24.19920687768337</v>
+        <v>16.59836785485784</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.74740829497802</v>
+        <v>22.03697867591324</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.43505790224659</v>
+        <v>16.15736792717033</v>
       </c>
       <c r="C23">
-        <v>18.66947030405268</v>
+        <v>10.77838267648813</v>
       </c>
       <c r="D23">
-        <v>9.572896523473489</v>
+        <v>6.616758332200304</v>
       </c>
       <c r="E23">
-        <v>14.82843810852809</v>
+        <v>11.7296149005998</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.020011858274312</v>
+        <v>3.608025762622559</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.73419432084324</v>
+        <v>16.46145432133601</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.44646853558285</v>
+        <v>22.01729965790006</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.35962009975733</v>
+        <v>15.22719434880961</v>
       </c>
       <c r="C24">
-        <v>17.36240470893386</v>
+        <v>10.08490020395358</v>
       </c>
       <c r="D24">
-        <v>8.807158494322353</v>
+        <v>6.395233110472444</v>
       </c>
       <c r="E24">
-        <v>13.52563321412774</v>
+        <v>11.51166876331853</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.033239285152994</v>
+        <v>3.612176506983225</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.91445550563069</v>
+        <v>15.93805435543498</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.34259463212712</v>
+        <v>21.95689726166601</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.95226653490307</v>
+        <v>14.1598850116028</v>
       </c>
       <c r="C25">
-        <v>15.85281783039626</v>
+        <v>9.273142199329779</v>
       </c>
       <c r="D25">
-        <v>7.924791125433154</v>
+        <v>6.154076012609985</v>
       </c>
       <c r="E25">
-        <v>12.24535177659963</v>
+        <v>11.28950660741265</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.047765904229898</v>
+        <v>3.616977886516604</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.82037042488395</v>
+        <v>15.36633387195918</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.22723610957721</v>
+        <v>21.92190105532656</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_66/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_66/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.32347289536497</v>
+        <v>21.0295338090888</v>
       </c>
       <c r="C2">
-        <v>8.621370384004305</v>
+        <v>14.65397744514199</v>
       </c>
       <c r="D2">
-        <v>5.976175885528134</v>
+        <v>7.224146125246213</v>
       </c>
       <c r="E2">
-        <v>11.13812739258253</v>
+        <v>11.36500672838551</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.620795274893379</v>
+        <v>2.0587635883766</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.94262488527407</v>
+        <v>18.1601267720302</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.92193066668024</v>
+        <v>17.47007149211905</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.72803815671297</v>
+        <v>19.63050052039469</v>
       </c>
       <c r="C3">
-        <v>8.146525002225319</v>
+        <v>13.78673039968928</v>
       </c>
       <c r="D3">
-        <v>5.856247262053571</v>
+        <v>6.716397054872392</v>
       </c>
       <c r="E3">
-        <v>11.04363809332773</v>
+        <v>10.76535660414921</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.623560066773948</v>
+        <v>2.0664399066993</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.65559845052419</v>
+        <v>16.95879163834623</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.93792121216747</v>
+        <v>16.99669556541149</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.34957036039175</v>
+        <v>18.72348080568813</v>
       </c>
       <c r="C4">
-        <v>7.838918388945147</v>
+        <v>13.22729331721185</v>
       </c>
       <c r="D4">
-        <v>5.783220541135611</v>
+        <v>6.388054198946403</v>
       </c>
       <c r="E4">
-        <v>10.98976343518347</v>
+        <v>10.39645300335878</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.625345876694209</v>
+        <v>2.071273588053113</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.48007159145226</v>
+        <v>16.18295575951632</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.9555624881631</v>
+        <v>16.72553794548307</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.19232259089783</v>
+        <v>18.34170410015085</v>
       </c>
       <c r="C5">
-        <v>7.709587761525345</v>
+        <v>12.99257867950622</v>
       </c>
       <c r="D5">
-        <v>5.753660658480785</v>
+        <v>6.250033304658459</v>
       </c>
       <c r="E5">
-        <v>10.96887064603442</v>
+        <v>10.24609858131338</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.626095869763923</v>
+        <v>2.07327504050671</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.40882133633727</v>
+        <v>15.85710975920099</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.96470938720958</v>
+        <v>16.61991350309413</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.16603630453172</v>
+        <v>18.27757365473948</v>
       </c>
       <c r="C6">
-        <v>7.687874162496983</v>
+        <v>12.95319894683707</v>
       </c>
       <c r="D6">
-        <v>5.748765630639035</v>
+        <v>6.226858866049141</v>
       </c>
       <c r="E6">
-        <v>10.96546606357543</v>
+        <v>10.22113617817792</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.626221752352669</v>
+        <v>2.073609333708419</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.39701004852023</v>
+        <v>15.80241623773516</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.96634617866205</v>
+        <v>16.60266786687126</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.34746157744608</v>
+        <v>18.71838137031099</v>
       </c>
       <c r="C7">
-        <v>7.837190213854359</v>
+        <v>13.22415509738514</v>
       </c>
       <c r="D7">
-        <v>5.78282101937467</v>
+        <v>6.386209944573569</v>
       </c>
       <c r="E7">
-        <v>10.98947734499465</v>
+        <v>10.39442513303931</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.625355901126004</v>
+        <v>2.071300450230691</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.47910942528333</v>
+        <v>16.17860059978675</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.95567793222105</v>
+        <v>16.72409377119886</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.12095879765254</v>
+        <v>20.55705574369716</v>
       </c>
       <c r="C8">
-        <v>8.461005274924783</v>
+        <v>14.36055731955727</v>
       </c>
       <c r="D8">
-        <v>5.934725191188106</v>
+        <v>7.052486118349364</v>
       </c>
       <c r="E8">
-        <v>11.10470056230735</v>
+        <v>11.15847928150142</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.621730313000457</v>
+        <v>2.061386277278566</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.84357080776323</v>
+        <v>17.75378560123635</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.92581544034024</v>
+        <v>17.30279282546543</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.52760099653715</v>
+        <v>23.78619621779783</v>
       </c>
       <c r="C9">
-        <v>9.55504584469228</v>
+        <v>16.37481416349819</v>
       </c>
       <c r="D9">
-        <v>6.235471198971563</v>
+        <v>8.229777570894708</v>
       </c>
       <c r="E9">
-        <v>11.3625172448538</v>
+        <v>12.64610829628285</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.6153169301387</v>
+        <v>2.042830668338396</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.55958298685957</v>
+        <v>20.54381372323729</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.92966982485933</v>
+        <v>18.59296579913933</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.48487451475165</v>
+        <v>25.93595592111341</v>
       </c>
       <c r="C10">
-        <v>10.27816656473774</v>
+        <v>17.72492005183121</v>
       </c>
       <c r="D10">
-        <v>6.455603392443648</v>
+        <v>9.019313482501461</v>
       </c>
       <c r="E10">
-        <v>11.56986023531366</v>
+        <v>13.8837704438059</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.611024545042937</v>
+        <v>2.02963274133058</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.08083129027146</v>
+        <v>22.41841440347219</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.97091519447151</v>
+        <v>19.63622547157458</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.90236364527738</v>
+        <v>26.86726408825524</v>
       </c>
       <c r="C11">
-        <v>10.58937515305615</v>
+        <v>18.31146125780194</v>
       </c>
       <c r="D11">
-        <v>6.555054490055859</v>
+        <v>9.362920811512945</v>
       </c>
       <c r="E11">
-        <v>11.66771923156803</v>
+        <v>14.46838279314516</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.609161855976227</v>
+        <v>2.023697019804967</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.3157996192485</v>
+        <v>23.23498286241179</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.99806272039681</v>
+        <v>20.13177648630975</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.05777397573809</v>
+        <v>27.21337302533844</v>
       </c>
       <c r="C12">
-        <v>10.7046572841198</v>
+        <v>18.52965734727887</v>
       </c>
       <c r="D12">
-        <v>6.592574978141215</v>
+        <v>9.490870654384219</v>
       </c>
       <c r="E12">
-        <v>11.70525234249934</v>
+        <v>14.68752993765615</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.608469355560975</v>
+        <v>2.021456692961833</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.40437940669069</v>
+        <v>23.53916087911896</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>22.00954914098037</v>
+        <v>20.322480946757</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.02442433733088</v>
+        <v>27.13912141371805</v>
       </c>
       <c r="C13">
-        <v>10.67994351096658</v>
+        <v>18.48283792010398</v>
       </c>
       <c r="D13">
-        <v>6.584501094635393</v>
+        <v>9.46340955629922</v>
       </c>
       <c r="E13">
-        <v>11.69714827534241</v>
+        <v>14.64042888995733</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.60861792715246</v>
+        <v>2.021938898938938</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.38532120557958</v>
+        <v>23.47387195176614</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.00702169767182</v>
+        <v>20.28127286056542</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.91520363938873</v>
+        <v>26.89586920242018</v>
       </c>
       <c r="C14">
-        <v>10.59891097237741</v>
+        <v>18.32949044371237</v>
       </c>
       <c r="D14">
-        <v>6.558144342803073</v>
+        <v>9.373490325563152</v>
       </c>
       <c r="E14">
-        <v>11.67079775374166</v>
+        <v>14.48645580456866</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.609104626246215</v>
+        <v>2.023512572988996</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.32309558997594</v>
+        <v>23.26010773571754</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.99898354366103</v>
+        <v>20.14740444353725</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.84795066125365</v>
+        <v>26.74602086156288</v>
       </c>
       <c r="C15">
-        <v>10.54894170913388</v>
+        <v>18.2350529089637</v>
       </c>
       <c r="D15">
-        <v>6.54198074179835</v>
+        <v>9.318132199329659</v>
       </c>
       <c r="E15">
-        <v>11.6547183037255</v>
+        <v>14.39185775053712</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.609404416006311</v>
+        <v>2.02447738263472</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.28492627932955</v>
+        <v>23.12852004103787</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.99421701527522</v>
+        <v>20.06580482258363</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.45722004924359</v>
+        <v>25.87416680589788</v>
       </c>
       <c r="C16">
-        <v>10.25746998240736</v>
+        <v>17.68603693025813</v>
       </c>
       <c r="D16">
-        <v>6.449086666661474</v>
+        <v>8.996550774948627</v>
       </c>
       <c r="E16">
-        <v>11.56353333857317</v>
+        <v>13.84524198606092</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.611148079650536</v>
+        <v>2.030021826099345</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.06542462299382</v>
+        <v>22.36433516281604</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.96930984855968</v>
+        <v>19.60426443326513</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.21283931063702</v>
+        <v>25.32747112632952</v>
       </c>
       <c r="C17">
-        <v>10.07410540225128</v>
+        <v>17.34219421540279</v>
       </c>
       <c r="D17">
-        <v>6.39189337205288</v>
+        <v>8.795334835432318</v>
       </c>
       <c r="E17">
-        <v>11.50847750902329</v>
+        <v>13.50573692122382</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.61224074376655</v>
+        <v>2.033438976694723</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.9301523449671</v>
+        <v>21.88637424817883</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.95617859360484</v>
+        <v>19.32651251699282</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.07059042874944</v>
+        <v>25.0086277591481</v>
       </c>
       <c r="C18">
-        <v>9.966969452764522</v>
+        <v>17.14182001555183</v>
       </c>
       <c r="D18">
-        <v>6.35893481907468</v>
+        <v>8.678131984389067</v>
       </c>
       <c r="E18">
-        <v>11.47714586841105</v>
+        <v>13.30887344304557</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.612877685065347</v>
+        <v>2.035410996194882</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.85214992517561</v>
+        <v>21.60804573659603</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.94941514238973</v>
+        <v>19.16872724966908</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.02214082908068</v>
+        <v>24.8999131355492</v>
       </c>
       <c r="C19">
-        <v>9.930408841904825</v>
+        <v>17.07352779614999</v>
       </c>
       <c r="D19">
-        <v>6.347766159179892</v>
+        <v>8.638194800733027</v>
       </c>
       <c r="E19">
-        <v>11.46659602943596</v>
+        <v>13.24194096861606</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.613094799389451</v>
+        <v>2.036079884457503</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.82570851755928</v>
+        <v>21.51321666255612</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.94726067194292</v>
+        <v>19.11564156323965</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.23902947558013</v>
+        <v>25.3861220097474</v>
       </c>
       <c r="C20">
-        <v>10.0937977804074</v>
+        <v>17.37906608377699</v>
       </c>
       <c r="D20">
-        <v>6.397988463327768</v>
+        <v>8.816906136185066</v>
       </c>
       <c r="E20">
-        <v>11.51430385628473</v>
+        <v>13.54204109148567</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.612123551747262</v>
+        <v>2.033074552262386</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.94457339405593</v>
+        <v>21.93760661043795</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.95749473907356</v>
+        <v>19.35587558457059</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.94735794643261</v>
+        <v>26.9674949919658</v>
       </c>
       <c r="C21">
-        <v>10.62278192083632</v>
+        <v>18.37463801028895</v>
       </c>
       <c r="D21">
-        <v>6.56589005710794</v>
+        <v>9.399960001807866</v>
       </c>
       <c r="E21">
-        <v>11.67852488698868</v>
+        <v>14.53174049227995</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.60896132250499</v>
+        <v>2.023050166159676</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.34138423382139</v>
+        <v>23.32303079953497</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.00131181204341</v>
+        <v>20.18664166701989</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.39461386861253</v>
+        <v>27.9628712378054</v>
       </c>
       <c r="C22">
-        <v>10.95354451709398</v>
+        <v>19.00252345210246</v>
       </c>
       <c r="D22">
-        <v>6.674793250688162</v>
+        <v>9.768426475888353</v>
       </c>
       <c r="E22">
-        <v>11.78861166081492</v>
+        <v>15.16565288362972</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.606969544116318</v>
+        <v>2.016540500337739</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.59836785485784</v>
+        <v>24.19920687768338</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.03697867591324</v>
+        <v>20.74740829497798</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.15736792717033</v>
+        <v>27.43505790224663</v>
       </c>
       <c r="C23">
-        <v>10.77838267648813</v>
+        <v>18.66947030405257</v>
       </c>
       <c r="D23">
-        <v>6.616758332200304</v>
+        <v>9.572896523473378</v>
       </c>
       <c r="E23">
-        <v>11.7296149005998</v>
+        <v>14.82843810852814</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.608025762622559</v>
+        <v>2.020011858274309</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.46145432133601</v>
+        <v>23.73419432084328</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.01729965790006</v>
+        <v>20.44646853558286</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.22719434880961</v>
+        <v>25.35962009975735</v>
       </c>
       <c r="C24">
-        <v>10.08490020395358</v>
+        <v>17.36240470893377</v>
       </c>
       <c r="D24">
-        <v>6.395233110472444</v>
+        <v>8.807158494322371</v>
       </c>
       <c r="E24">
-        <v>11.51166876331853</v>
+        <v>13.52563321412775</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.612176506983225</v>
+        <v>2.033239285152992</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.93805435543498</v>
+        <v>21.91445550563069</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.95689726166601</v>
+        <v>19.3425946321271</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.1598850116028</v>
+        <v>22.95226653490309</v>
       </c>
       <c r="C25">
-        <v>9.273142199329779</v>
+        <v>15.85281783039621</v>
       </c>
       <c r="D25">
-        <v>6.154076012609985</v>
+        <v>7.92479112543316</v>
       </c>
       <c r="E25">
-        <v>11.28950660741265</v>
+        <v>12.24535177659964</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.616977886516604</v>
+        <v>2.047765904229898</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.36633387195918</v>
+        <v>19.82037042488396</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.92190105532656</v>
+        <v>18.22723610957722</v>
       </c>
     </row>
   </sheetData>
